--- a/biology/Zoologie/Grenouille_de_mer/Grenouille_de_mer.xlsx
+++ b/biology/Zoologie/Grenouille_de_mer/Grenouille_de_mer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grenouille de mer, Trident
-Raniceps raninus, la Grenouille de mer[1] ou Trident[2], seul représentant encore vivant du genre Raniceps, est une espèce de poissons marins de la famille des Gadidae.
+Raniceps raninus, la Grenouille de mer ou Trident, seul représentant encore vivant du genre Raniceps, est une espèce de poissons marins de la famille des Gadidae.
 Le nom vernaculaire Grenouille de mer est aussi attribué à la Baudroie commune.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson se rencontre sur les côtes des pays suivants, Allemagne, Guernesey, Belgique, Danemark, Estonie, Finlande, France, Irlande, Jersey, Lettonie, Lituanie, Norvège, Pays-Bas, Pologne, Royaume-Uni, Russie et Suède[3].
-Cette espèce est présente depuis la surface de la mer jusqu'à une profondeur de 100 m mais, plus généralement, entre 10 et 20 m[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson se rencontre sur les côtes des pays suivants, Allemagne, Guernesey, Belgique, Danemark, Estonie, Finlande, France, Irlande, Jersey, Lettonie, Lituanie, Norvège, Pays-Bas, Pologne, Royaume-Uni, Russie et Suède.
+Cette espèce est présente depuis la surface de la mer jusqu'à une profondeur de 100 m mais, plus généralement, entre 10 et 20 m.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raniceps raninus peut mesurer jusqu'à 30 cm de longueur mais sa taille habituelle est d'environ 20 cm[4].. De couleur brun noirâtre, sa tête est large et aplatie[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raniceps raninus peut mesurer jusqu'à 30 cm de longueur mais sa taille habituelle est d'environ 20 cm.. De couleur brun noirâtre, sa tête est large et aplatie.
 Elle vit de préférence sur les fonds rocheux et dans les champs d'algues.
-La reproduction a lieu de mai à septembre à 50-70 m de profondeur près du rivage dans toute son aire de répartition[4]. Ce poisson se nourrit d'étoiles de mer, de crustacés, de vers, de mollusques et de petits poissons[4].
+La reproduction a lieu de mai à septembre à 50-70 m de profondeur près du rivage dans toute son aire de répartition. Ce poisson se nourrit d'étoiles de mer, de crustacés, de vers, de mollusques et de petits poissons.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (10 juin 2023)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (10 juin 2023) :
 Gadus raninus var. raninus (Linnaeus, 1758)
 Gadus raninus var. trifurcus Walbaum, 1792</t>
         </is>
@@ -610,16 +628,18 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Raniceps raninus (Linnaeus, 1758)[1].
-L'espèce a été initialement classée dans le genre Blennius sous le protonyme Blennius raninus Linnaeus, 1758[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Raniceps raninus (Linnaeus, 1758).
+L'espèce a été initialement classée dans le genre Blennius sous le protonyme Blennius raninus Linnaeus, 1758.
 Ce taxon porte en français les noms vernaculaires ou normalisés suivants : 
-Grenouille de mer[1],[3],
-Petite loquette[1],
-Poisson têtard[1].
-Trident[1],[3],
-Raniceps raninus a pour synonymes[1] :
+Grenouille de mer
+Petite loquette,
+Poisson têtard.
+Trident
+Raniceps raninus a pour synonymes :
 Batrachocephalus blennioides (Lacepède, 1800)
 Batrachoides blennioides Lacepède, 1800
 Blennius fuscus Müller, 1776
@@ -664,9 +684,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, raninus, dérive du latin rana, « grenouille », et fait référence à la ressemblance de ce poisson avec une grenouille, avec sa tête large et aplatie[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, raninus, dérive du latin rana, « grenouille », et fait référence à la ressemblance de ce poisson avec une grenouille, avec sa tête large et aplatie.
 </t>
         </is>
       </c>
